--- a/Tabela/Copacabana/Copacabana-6.xlsx
+++ b/Tabela/Copacabana/Copacabana-6.xlsx
@@ -14,378 +14,387 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
-  <si>
-    <t>Rua Jardim Botânico, Jardim Botânico</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="127">
+  <si>
+    <t>A Opportunity lançou o 1º Sucesso da região: o Highlight,...</t>
   </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>73 - 255 m²</t>
+    <t>mais</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
+    <t>R$ 1.850.000</t>
+  </si>
+  <si>
     <t>destaque</t>
   </si>
   <si>
-    <t>R$ 1.550.000</t>
-  </si>
-  <si>
-    <t>R$ 380.000</t>
-  </si>
-  <si>
-    <t>R$ 270.000</t>
-  </si>
-  <si>
-    <t>R$ 470.000</t>
-  </si>
-  <si>
-    <t>R$ 621.000</t>
-  </si>
-  <si>
-    <t>R$ 780.000</t>
-  </si>
-  <si>
-    <t>R$ 850.000</t>
-  </si>
-  <si>
-    <t>R$ 1.750.000</t>
+    <t>R$ 800.000</t>
+  </si>
+  <si>
+    <t>R$ 450.000</t>
+  </si>
+  <si>
+    <t>R$ 1.390.000</t>
+  </si>
+  <si>
+    <t>R$ 600.000</t>
+  </si>
+  <si>
+    <t>R$ 900.000</t>
+  </si>
+  <si>
+    <t>R$ 650.000</t>
+  </si>
+  <si>
+    <t>R$ 230.000</t>
+  </si>
+  <si>
+    <t>R$ 587.000</t>
+  </si>
+  <si>
+    <t>R$ 760.000</t>
+  </si>
+  <si>
+    <t>R$ 1.090.000</t>
+  </si>
+  <si>
+    <t>R$ 840.000</t>
+  </si>
+  <si>
+    <t>R$ 2.000.000</t>
+  </si>
+  <si>
+    <t>R$ 370.000</t>
+  </si>
+  <si>
+    <t>Avenida Lauro Sodré, Botafogo</t>
+  </si>
+  <si>
+    <t>R$ 630.000</t>
+  </si>
+  <si>
+    <t>R$ 290.000</t>
   </si>
   <si>
     <t>R$ 680.000</t>
   </si>
   <si>
-    <t>2 - 4</t>
-  </si>
-  <si>
-    <t>R$ 3.500.000</t>
-  </si>
-  <si>
-    <t>R$ 950.000</t>
-  </si>
-  <si>
-    <t>R$ 750.000</t>
-  </si>
-  <si>
-    <t>R$ 649.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.671 IPTU R$ 697</t>
-  </si>
-  <si>
-    <t>R$ 1.980.000</t>
-  </si>
-  <si>
-    <t>R$ 1.500.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 100 IPTU R$ 37</t>
-  </si>
-  <si>
-    <t>condomínio R$ 795 IPTU R$ 228</t>
-  </si>
-  <si>
-    <t>Apartamento localizado em Copacabana</t>
-  </si>
-  <si>
-    <t>R$ 555.000</t>
-  </si>
-  <si>
-    <t>O apartamento no bairro Copacabana tem 46 metros quadrados com 1 quarto e 1 banheiroEncontra-se em um condomínio protegido por muros.</t>
-  </si>
-  <si>
-    <t>R$ 675.000</t>
-  </si>
-  <si>
-    <t>R$ 300.000</t>
-  </si>
-  <si>
-    <t>R$ 630.000</t>
-  </si>
-  <si>
-    <t>R$ 1.850.000</t>
-  </si>
-  <si>
-    <t>R$ 800.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 705 IPTU R$ 2.100</t>
-  </si>
-  <si>
-    <t>condomínio R$ 500 IPTU R$ 4.800</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.600 IPTU R$ 348</t>
-  </si>
-  <si>
-    <t>condomínio R$ 649 IPTU R$ 800</t>
+    <t>condomínioR$ 1.300 IPTU R$ 4.440</t>
+  </si>
+  <si>
+    <t>R$ 825.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.200</t>
+  </si>
+  <si>
+    <t>condomínioR$ 575 IPTU R$ 242</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.750 IPTU R$ 4.760</t>
+  </si>
+  <si>
+    <t>condomínioR$ 453 IPTU R$ 102</t>
+  </si>
+  <si>
+    <t>condomínioR$ 790 IPTU R$ 2.268</t>
+  </si>
+  <si>
+    <t>R$ 2.200.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 650 IPTU R$ 130</t>
+  </si>
+  <si>
+    <t>R$ 860.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 511 IPTU R$ 228</t>
+  </si>
+  <si>
+    <t>Os apartamentos serão amplos e com a divisão dos cômodos inteligentes vão surpreender e agradar a toda sua família, que merece a exclusividade que os Apartamentos e Coberturas do e...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 810 IPTU R$ 2.705</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.300 IPTU R$ 2.700</t>
+  </si>
+  <si>
+    <t>condomínioR$ 681 IPTU R$ 261</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.500 IPTU R$ 500</t>
+  </si>
+  <si>
+    <t>condomínioR$ 629 IPTU R$ 78</t>
+  </si>
+  <si>
+    <t>R$ 1.250.000</t>
+  </si>
+  <si>
+    <t>96 - 283 m²</t>
+  </si>
+  <si>
+    <t>condomínioR$ 800 IPTU R$ 1.777</t>
+  </si>
+  <si>
+    <t>condomínioR$ 550</t>
+  </si>
+  <si>
+    <t>condomínioR$ 800 IPTU R$ 218</t>
+  </si>
+  <si>
+    <t>Apartamento à venda na Rua Bolívar, Copacabana - Rio de Janeiro, RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.622 IPTU R$ 2.540</t>
+  </si>
+  <si>
+    <t>O caminho mais prático, transparente e seguro até o imóvel dos seus sonhos! Agende agora uma visita pelo nosso site buscando pelo código do imóvel.</t>
+  </si>
+  <si>
+    <t>excelente apartamento conjugadão dividido em sala e quarto separado 45metros no iptu em bom estado cozinha cabe fogão e geladeira reformado frontal claro arejado condominio barato...</t>
+  </si>
+  <si>
+    <t>Apartamento à venda na Rua Miguel Lemos, Copacabana - Rio de Janeiro, RJ</t>
+  </si>
+  <si>
+    <t>MARAVILHOSO SALA QUARTO COM DEPENDÊNCIAS DE EMPREGADA COMPLETAS !! Apartamento amplo claro e arejado, composto de sala espaçosa com ventilação natural, quarto amplo com armário emb...</t>
+  </si>
+  <si>
+    <t>Excelente apartamento sala em dois ambientes 2 quartos 1 suíte em prédio imponente, portaria 24horas, salão de festas. , 1 vaga escritura, dependência revertida para ampliar a área...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.500 IPTU R$ 9.382</t>
+  </si>
+  <si>
+    <t>Rua barão de ipanema oportunidade investimento sala e quarto suite dependência de empregada area de serviço frontal sol da manhã 2 quadra da praia entrar e morar agende sua visita...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 770 IPTU R$ 1.500</t>
+  </si>
+  <si>
+    <t>Sala comercial em Copacabana, com copa, cozinha e banheiro. Ótima localização. Fundos, 24 m². Próximo a estação do metrô da Cardeal Arcoverde.</t>
+  </si>
+  <si>
+    <t>Oportunidade em Copacabana, próximo da praia de Copacabana ( posto 4), á 7 min. da estação de metrô Cantagalo, Supermercado Pão de Açúcar, Senac, Lojas Americanas, farto comércio.&lt;...</t>
+  </si>
+  <si>
+    <t>Excelente apartamento composto por: três quartos, sendo duas suítes, sala grande clara e arejada, banheiro social, lavabo, cozinha espaçosa, área de serviço e dependência completa,...</t>
+  </si>
+  <si>
+    <t>Magnifico Apartamento, todo reformado, pronto para morar.</t>
+  </si>
+  <si>
+    <t>TRECHO MAIS VALORIZADO EM COPACABANA. Rua Souza Lima. Posto 5. Privilegiada rua em Copacabana. 3ª. quadra da praia. Farto comércio nas proximidades. Transporte público na porta. 5...</t>
+  </si>
+  <si>
+    <t>Cód: CPAP11776. Conjugadão dividido em saleta quarto!!! Saleta e quarto amplos todo no piso taco, cozinha americana com espaço para geladeira e fogão contendo bancada em mármore, p...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.100 IPTU R$ 960</t>
+  </si>
+  <si>
+    <t>3 - 4</t>
+  </si>
+  <si>
+    <t>Privilégio Imóveis Vende: Excelente apartamento 2 quartos em Copacabana junto a farto comércio e Metrô, composto de salão, dois quartos, dependência convertida para segundo ambient...</t>
+  </si>
+  <si>
+    <t>O apartamento está localizado no bairro Copacabana com 27 metros quadrados com sala, cozinha americana, 1 quarto e 1 banheiro, Metrô, bancos e supermercado, em frente.</t>
+  </si>
+  <si>
+    <t>Cód: VEAP20916. Localizado próximo ao metrô e todo comércio da região - prédio gradeado, com portaria 24h, play e salão de festas - apartamento de frente, claro e arejado - compost...</t>
+  </si>
+  <si>
+    <t>- Preço: R$ 1850000.00</t>
+  </si>
+  <si>
+    <t>ÓTIMO APARTAMENTO MUITO BEM CONSWRVADO, COM REFORMA HÁ 08 ANOS COM SALÃO COM 50MTS2 EM 03 AMBIENTES COM SPLINT EM TODOS OS CÔMODOS 03 QUARTOS SENDO UM SUITE COM CLOSET EXCELENTES A...</t>
+  </si>
+  <si>
+    <t>CÓDIGO DO IMÓVEL:</t>
+  </si>
+  <si>
+    <t>- Preço: R$ 1390000.00</t>
+  </si>
+  <si>
+    <t>Apartamento Espetacular em Copacabana Estilo Clássico Aconchegante 303m2 privativos com 1 vaga de garagem Muito bem localizado Nascente Vazado Andar inteiro Vista linda da Praia e...</t>
+  </si>
+  <si>
+    <t>Cód: BOAP30540. IMOBRAS IMÓVEIS COPACABANA: Apartamento em Copacabana: Excelente 3 quartos sendo uma suite com banheiro de fino acabamento, sala ampla, toda em piso porcelanato, co...</t>
+  </si>
+  <si>
+    <t>Desocupada, entrega imediata.</t>
+  </si>
+  <si>
+    <t>Rua Henrique Oswald, Copacabana</t>
+  </si>
+  <si>
+    <t>Composto de Sala ampla, 2 quartos, suíte armários, banheiro, dependência completa.</t>
+  </si>
+  <si>
+    <t>Apartamento reformado!</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>Elevador,...</t>
+  </si>
+  <si>
+    <t>- IPTU/Ano: R$ 4440.00</t>
+  </si>
+  <si>
+    <t>Copacabana, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>- IPTU/Ano: R$ 4760.00</t>
+  </si>
+  <si>
+    <t>Rua Barata Ribeiro, Copacabana</t>
+  </si>
+  <si>
+    <t>D...</t>
+  </si>
+  <si>
+    <t>49 m²</t>
+  </si>
+  <si>
+    <t>Rua Pompeu Loureiro, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Professor Gastão Bahiana, Copacabana</t>
+  </si>
+  <si>
+    <t>Posto 5 a 2 quadras de do metro C...</t>
+  </si>
+  <si>
+    <t>Rua Souza Lima, Copacabana</t>
+  </si>
+  <si>
+    <t>Praça Vereador Rocha Leão, Copacabana</t>
+  </si>
+  <si>
+    <t>Melhor localização de Copacabana ,restaurantes, pubs, vasto de comércios e muito mais ...</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Rua Ronald de Carvalho, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Siqueira Campos, Copacabana</t>
+  </si>
+  <si>
+    <t>- Preço/m²: R$ 13214.29</t>
+  </si>
+  <si>
+    <t>Rua Sá Ferreira, Copacabana</t>
+  </si>
+  <si>
+    <t>- V...</t>
+  </si>
+  <si>
+    <t>45 m²</t>
+  </si>
+  <si>
+    <t>- Preço/m²: R$ 9266.67</t>
+  </si>
+  <si>
+    <t>60 m²</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>Rua Paula Freitas, Copacabana</t>
+  </si>
+  <si>
+    <t>55 m²</t>
+  </si>
+  <si>
+    <t>Rua Joseph Bloch, Copacabana</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>condomínio R$ 3.300 IPTU R$ 13.474</t>
-  </si>
-  <si>
-    <t>condomínio R$ 900 IPTU R$ 90</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.365 IPTU R$ 1.763</t>
-  </si>
-  <si>
-    <t>condomínio R$ 950 IPTU R$ 200</t>
-  </si>
-  <si>
-    <t>Rua Domingos Ferreira 67-Copacabana</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.600 IPTU R$ 6.481</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.210 IPTU R$ 5.939</t>
-  </si>
-  <si>
-    <t>Maravilhoso sala quarto com varanda! Ambiente muito bem divido e bastante arejado, Sala e quarto bem espaçoso, banheiro com box blindex e piso até ao teto, piso frio em todos os cô...</t>
-  </si>
-  <si>
-    <t>.Sala comercial, excelente localização na Rua Constante Ramos, coração de Copacabana, andar alto, muito clara, prédio com boa apresentação e manutenção, 27m² no IPTU, precisa de mo...</t>
-  </si>
-  <si>
-    <t>Excelente apartamento perto de vias de acesso, com um amplo espaço, bastante arejado</t>
-  </si>
-  <si>
-    <t>condomínio R$ 750 IPTU R$ 240</t>
-  </si>
-  <si>
-    <t>Elevador que garante o transporte das suas...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 750 IPTU R$ 130</t>
-  </si>
-  <si>
-    <t>condomínio R$ 330 IPTU R$ 235</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 168</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.573 IPTU R$ 5.107</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.012 IPTU R$ 2.465</t>
-  </si>
-  <si>
-    <t>Prédio em local residencial, próximo à praia, ao Metrô e a todo comércio. Apartamento reformado, composto de: sala, com piso em tábuas corridas, 2 quartos, com armários, banheiro s...</t>
-  </si>
-  <si>
-    <t>Apartamento à venda, 100m² com 2 quartos em Copacabana</t>
-  </si>
-  <si>
-    <t>O apartamento está localizado no bairro do Leme, possui 135 metros quadrados com 2 salas, 3 quartos com armários, 1 banheiro e 1 lavabo. Copa cozinha com armários, area de serviço,...</t>
-  </si>
-  <si>
-    <t>Excelente preço, 02 quartos, sala, banheiro, social e empregada, ótima localização.</t>
-  </si>
-  <si>
-    <t>Excelente apartamento na quadra da praia, vista lateral mar! Próximo ao bom comércio do bairro, metrô estação Arcoverde, a 10 min. do centro da cidade, coladinho na praia de Copaca...</t>
-  </si>
-  <si>
-    <t>Excelente apartamento de 96m2 composto por 3 quartos e reformado.</t>
-  </si>
-  <si>
-    <t>Apartamento à venda na Rua Santa Clara, Copacabana - Rio de Janeiro, RJ</t>
-  </si>
-  <si>
-    <t>Copacabana posto 5, apartamento com uma sala e mais 2 quartos com armários, banheiro social e um banheiro de serviço, a sala e os quartos com vista para rua e lateral praia , cozin...</t>
-  </si>
-  <si>
-    <t>3 quartos ( suite) ,recem reformado,armários,área,dependência,garagem 3 banheiros, salão, sala de jantar,lavabo.</t>
-  </si>
-  <si>
-    <t>Localizado em uma das ruas mais cobiçadas do bairro.</t>
-  </si>
-  <si>
-    <t>Apartamento localizado na Rua Pompeu Loureiro, com quatro (04) quartos, três (03) banheiros, uma (01) cozinha grande, boa área de serviço, dois (02) espaços para dispensa, uma sala...</t>
-  </si>
-  <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>Apartamento composto por: quarto, sala, cozinha e b...</t>
-  </si>
-  <si>
-    <t>Amplo apartamento de frente, excelente localização, ventilado, claro, com armários planejados embutidos na cozinha e na suíte. Sala em 2 ambientes e vista livre. 2 dormitórios (sen...</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO SALA DOIS QUARTOS COM VAGA NA ESCRITURA!! Apartamento amplo, claro e arejado, original quarto e sala com dependência, revertido para dois quarto espaçosos e com armário...</t>
-  </si>
-  <si>
-    <t>Privilégio Imóveis vende excelente sala comercial no melhor ponto de Copacabana de frente, próximo estação do metrô Siqueira Campos, farto transporte público e comércio.</t>
-  </si>
-  <si>
-    <t>Excelente apartamento sala e quarto em ótima localização, todo reformado, com 53 M2, banheiro social com blindex, cozinha com armários, dependências completas, andar alto, sol da m...</t>
-  </si>
-  <si>
-    <t>O apartamento está localizado no bairro Copacabana, na quadra da praia e tem 173 metros quadrados. Rua fartamente arborizada. Próximo ao metrô Arcoverde, andar alto, abundante ofer...</t>
-  </si>
-  <si>
-    <t>Excelente investimento! Imóvel de posição frente, claro e arejado, 85m2 - composto por sala em 2 ambientes, 2 qtos (1 com armário), banheiro social, cozinha, área de serviço e depe...</t>
-  </si>
-  <si>
-    <t>Copacabana, Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Próximo ao comércio e metrô.</t>
-  </si>
-  <si>
-    <t>- Preço: R$ 750000.00</t>
-  </si>
-  <si>
-    <t>Marcar Visitas,Creci J 1...</t>
-  </si>
-  <si>
-    <t>Posto 4. Próximo a todo comércio, colégios, creche, supermercados, hortifrúti e há 10 minutos do metro.</t>
-  </si>
-  <si>
-    <t>Praça Vereador Rocha Leão, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Constante Ramos, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Henrique Oswald, Copacabana</t>
-  </si>
-  <si>
-    <t>Os valo...</t>
-  </si>
-  <si>
-    <t>Travessa Angrense, Copacabana</t>
-  </si>
-  <si>
-    <t>100 m²</t>
-  </si>
-  <si>
-    <t>Avenida Atlântica, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Ronald de Carvalho, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Paula Freitas, Copacabana</t>
-  </si>
-  <si>
-    <t>- IPTU/Ano: R$ 1763.00</t>
-  </si>
-  <si>
-    <t>Rua Almirante Gonçalves, Copacabana</t>
-  </si>
-  <si>
-    <t>Ótimo prédio, e...</t>
-  </si>
-  <si>
-    <t>Rua Pompeu Loureiro, Copacabana</t>
-  </si>
-  <si>
-    <t>45 m²</t>
+    <t>83 m²</t>
+  </si>
+  <si>
+    <t>97 m²</t>
+  </si>
+  <si>
+    <t>200 m²</t>
+  </si>
+  <si>
+    <t>50 m²</t>
+  </si>
+  <si>
+    <t>Sala em 02 ambientes, fundos, silencioso, vista livre, piso &lt;...</t>
+  </si>
+  <si>
+    <t>85 m²</t>
+  </si>
+  <si>
+    <t>64 m²</t>
+  </si>
+  <si>
+    <t>- Condomínio: R$ 1300.00</t>
+  </si>
+  <si>
+    <t>150 m²</t>
+  </si>
+  <si>
+    <t>- Condomínio: R$ 1750.00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>303 m²</t>
+  </si>
+  <si>
+    <t>75 m²</t>
+  </si>
+  <si>
+    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>27 m²</t>
   </si>
   <si>
-    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Duvivier, Copacabana</t>
-  </si>
-  <si>
-    <t>46 m²</t>
-  </si>
-  <si>
-    <t>Rua Barata Ribeiro, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Leopoldo Miguez, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Figueiredo Magalhães, Copacabana</t>
-  </si>
-  <si>
-    <t>85 m²</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>135 m²</t>
-  </si>
-  <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>403 m²</t>
-  </si>
-  <si>
-    <t>Agende agora sua visita e conheça essa oportunidade.</t>
-  </si>
-  <si>
-    <t>- Preço/m²: R$ 7500.00</t>
-  </si>
-  <si>
-    <t>Rua Domingos Ferreira, Copacabana</t>
-  </si>
-  <si>
-    <t>158 m²</t>
-  </si>
-  <si>
-    <t>50 m²</t>
-  </si>
-  <si>
-    <t>65 m²</t>
-  </si>
-  <si>
-    <t>53 m²</t>
-  </si>
-  <si>
-    <t>173 m²</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>- Condomínio: R$ 1365.00</t>
-  </si>
-  <si>
-    <t>300 m²</t>
-  </si>
-  <si>
-    <t>Rua Dias da Rocha, Copacabana</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>25 m²</t>
+    <t>24 m²</t>
+  </si>
+  <si>
+    <t>84 m²</t>
   </si>
   <si>
     <t>Rua Bolivar, Copacabana</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>201 m²</t>
-  </si>
-  <si>
-    <t>96 m²</t>
-  </si>
-  <si>
-    <t>Rua Santa Clara, Copacabana</t>
+    <t>110 m²</t>
+  </si>
+  <si>
+    <t>Rua Miguel Lemos, Copacabana</t>
+  </si>
+  <si>
+    <t>140 m²</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -743,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -792,14 +801,8 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -810,13 +813,22 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -827,34 +839,31 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -865,37 +874,34 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -906,49 +912,34 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
         <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -959,31 +950,43 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>122</v>
+      </c>
+      <c r="L6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -994,37 +997,34 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1032,43 +1032,37 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1076,37 +1070,31 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1114,31 +1102,46 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1146,28 +1149,31 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1175,34 +1181,34 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1210,34 +1216,37 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1245,31 +1254,31 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1277,37 +1286,37 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1315,34 +1324,34 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1350,34 +1359,28 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1385,37 +1388,31 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1423,37 +1420,34 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1461,31 +1455,37 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>121</v>
+      </c>
+      <c r="K20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1493,31 +1493,34 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>114</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1525,34 +1528,31 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1560,28 +1560,37 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>117</v>
+      </c>
+      <c r="K23" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
